--- a/ATG 운동루틴.xlsx
+++ b/ATG 운동루틴.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D78B40-21CD-4054-9B36-BB6A9739D22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D21A7DC-03E2-496D-9CF2-EA4D09E54396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>ATG Program</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,13 +268,53 @@
   </si>
   <si>
     <t>3set 12rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리말도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프림퐁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보니페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비르츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑소바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차두리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차범근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토니크로스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,21 +525,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,24 +566,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,11 +880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9A87DD-7D7F-4717-9160-96877A18B511}">
-  <dimension ref="B2:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -854,135 +893,167 @@
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="18"/>
       <c r="D10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="18"/>
       <c r="D11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="19"/>
       <c r="D12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
+      <c r="M16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -992,83 +1063,83 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1076,54 +1147,54 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
